--- a/medicine/Handicap/Young_Sheldon/Young_Sheldon.xlsx
+++ b/medicine/Handicap/Young_Sheldon/Young_Sheldon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Young Sheldon est une sitcom américaine en 141 épisodes de 22 minutes créée par Chuck Lorre et Steven Molaro et diffusée en simultané entre le 25 septembre 2017[1] et le 16 mai 2024 sur le réseau CBS aux États-Unis et sur le réseau CTV[2] au Canada.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Young Sheldon est une sitcom américaine en 141 épisodes de 22 minutes créée par Chuck Lorre et Steven Molaro et diffusée en simultané entre le 25 septembre 2017 et le 16 mai 2024 sur le réseau CBS aux États-Unis et sur le réseau CTV au Canada.
 C'est une série dérivée préquelle de la sitcom The Big Bang Theory, centrée sur la jeunesse de Sheldon Cooper, l'un des personnages principaux de la série d'origine, qui est aussi le narrateur.
-En France, le premier épisode a été diffusé en avant-première le 2 octobre 2017, puis la diffusion s'est poursuivie dès le 6 novembre 2017 sur Canal+ Séries en version originale sous-titrée français[3] et en version française depuis le 25 juin 2018 sur Canal+ et depuis le 20 avril 2019 en clair sur NRJ 12[4] et au Québec depuis le 4 septembre 2018 sur Vrak[5]. Néanmoins, la série reste inédite dans les autres pays francophones.
+En France, le premier épisode a été diffusé en avant-première le 2 octobre 2017, puis la diffusion s'est poursuivie dès le 6 novembre 2017 sur Canal+ Séries en version originale sous-titrée français et en version française depuis le 25 juin 2018 sur Canal+ et depuis le 20 avril 2019 en clair sur NRJ 12 et au Québec depuis le 4 septembre 2018 sur Vrak. Néanmoins, la série reste inédite dans les autres pays francophones.
 La série s'arrête après sept saisons avec un dernier épisode diffusé le 16 mai 2024. L'intrigue se poursuivra ensuite avec une autre série dérivée centrée sur Georgie Cooper et Mandy McAllister.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sheldon Cooper, jeune prodige vivant à Medford, dans le Texas de l'Est. Il intègre l'école secondaire de sa ville à l'âge de neuf ans. Sheldon est un surdoué de haut niveau, à la fois exceptionnellement intelligent et très sensible à son environnement[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sheldon Cooper, jeune prodige vivant à Medford, dans le Texas de l'Est. Il intègre l'école secondaire de sa ville à l'âge de neuf ans. Sheldon est un surdoué de haut niveau, à la fois exceptionnellement intelligent et très sensible à son environnement.
 Il vit avec ses parents, George Cooper Sr. et Mary Cooper, sa sœur jumelle Melissa « Missy » Cooper et son frère George « Georgie » Cooper Jr..
 </t>
         </is>
@@ -546,11 +560,43 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Acteurs principaux
-Acteurs récurrents
 Personnages récurrents
 Wyatt McClure (VF : Simon Faliu)[note 5] (1re voix) / (VF : Enzo Ratsito)[note 6] (2e voix) / ? (3e voix) [note 7] : Billy Sparks (depuis saison 1)
 Ryan Phuong (VF : Thomas Sagols) : Tam Nguyen (saisons 1 à 4)
@@ -572,7 +618,43 @@
 Ava Allan : Jana, petite amie de Georgie (saisons 3 à 5)
 Wendie Malick (VF : Anne Deleuze) : la présidente Hagemeyer (depuis saison 4)
 Dan Byrd (VF : Juan Llorca) : le pasteur Rob (depuis la saison 5)
-Invités
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Invités
 Melissa Tang : Mlle Fenley
 Bob Newhart (VF : Laurent Claret) : Arthur Jeffries, le professeur Proton (saison 1, épisode 1 ; saison 3, épisodes 10 et 20)
@@ -608,129 +690,280 @@
 Rachel Bay Jones (VF : Delphine Braillon) : Audrey McAllister, la mère de Mandy (saison 6)
 Will Sasso : Jim McAllister, le père de Mandy (saison 6)
 Version française
-Société de doublage : Dubbing Brothers[7],[8]
-Direction artistique : Dorothée Pousséo[7],[8]
-Adaptation des dialogues : Sophie Arthuys et Fabienne Goudey[8]
- Source et légende : version française (VF) sur RS Doublage[7] et Doublage Séries Database[8]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Young_Sheldon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Young_Sheldon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Société de doublage : Dubbing Brothers,
+Direction artistique : Dorothée Pousséo,
+Adaptation des dialogues : Sophie Arthuys et Fabienne Goudey
+ Source et légende : version française (VF) sur RS Doublage et Doublage Séries Database</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Développement
-Jim Parsons a révélé dans une interview pour CBS qu'il a d'abord proposé le concept d'une série sur l'enfance de Sheldon au producteur Chuck Lorre qui a immédiatement accepté.
-En novembre 2016, la chaîne CBS annonce être en négociation pour la mise en place d'une série dérivée de The Big Bang Theory centrée sur la jeunesse du personnage Sheldon Cooper lorsqu'il vivait au Texas[9].
-En mars 2017, la série est officiellement commandée[10].
-En septembre 2017, deux jours après la diffusion de l'épisode pilote, CBS commande neuf épisodes supplémentaires, portant la saison à vingt-deux épisodes[11].
-En janvier 2018, la série est renouvelée pour une deuxième saison, diffusée lors de la saison 2018-2019[12].
-En février 2019, la série est renouvelée pour une troisième et quatrième saison[13].
-Le 30 mars 2021, la série a été renouvelée pour une cinquième, sixième et septième saison[14].
-Comme annoncé le 14 novembre 2023, la série est terminée après sept saisons en raison du fait qu'elle rejoint les premiers évènements de The Big Bang Theory. Le dernier épisode a été diffusé le 16 mai 2024[15].
-Attribution des rôles
-En mars 2017, le jeune acteur Iain Armitage a été choisi pour interpréter le jeune Sheldon Cooper[16].
-En décembre 2017, Zoe Perry, qui n'est autre que la fille de Laurie Metcalf (qui tient le même rôle plus âgé dans The Big Bang Theory), a obtenu le rôle de Mary Cooper jeune, d'où la ressemblance[17].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jim Parsons a révélé dans une interview pour CBS qu'il a d'abord proposé le concept d'une série sur l'enfance de Sheldon au producteur Chuck Lorre qui a immédiatement accepté.
+En novembre 2016, la chaîne CBS annonce être en négociation pour la mise en place d'une série dérivée de The Big Bang Theory centrée sur la jeunesse du personnage Sheldon Cooper lorsqu'il vivait au Texas.
+En mars 2017, la série est officiellement commandée.
+En septembre 2017, deux jours après la diffusion de l'épisode pilote, CBS commande neuf épisodes supplémentaires, portant la saison à vingt-deux épisodes.
+En janvier 2018, la série est renouvelée pour une deuxième saison, diffusée lors de la saison 2018-2019.
+En février 2019, la série est renouvelée pour une troisième et quatrième saison.
+Le 30 mars 2021, la série a été renouvelée pour une cinquième, sixième et septième saison.
+Comme annoncé le 14 novembre 2023, la série est terminée après sept saisons en raison du fait qu'elle rejoint les premiers évènements de The Big Bang Theory. Le dernier épisode a été diffusé le 16 mai 2024.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mars 2017, le jeune acteur Iain Armitage a été choisi pour interpréter le jeune Sheldon Cooper.
+En décembre 2017, Zoe Perry, qui n'est autre que la fille de Laurie Metcalf (qui tient le même rôle plus âgé dans The Big Bang Theory), a obtenu le rôle de Mary Cooper jeune, d'où la ressemblance.
 Lance Barber, qui incarne ici le père de Sheldon, a auparavant incarné un tout autre personnage, Jimmy Speckerman, dans l'épisode 11 de la cinquième saison de The Big Bang Theory (The Speckerman Recurrence).
 L'actrice qui joue le rôle de l'infirmière Robinson dans l'épisode 12 de la 2e saison (A Tummy Ache and a Whale of a Metaphor) a également joué le rôle de l'infirmière dans l'épisode 18 de la cinquième saison de The Big Bang Theory (The Werewolf Transformation).
 Teller, qui incarne "Pus" dans l'épisode 22 de la saison 5, a auparavant incarné un tout autre personnage, M. Fowler, le père d'Amy dans The Big Bang Theory.
-Musique
-Le chanson du générique d'ouverture s'intitule Mighty Little Man, titre de l'album Songs for Dustmites de Steve Burns, musicien et ancien présentateur de Jeu de Bleue (Blue's Clues), un programme télévisé américain pour la jeunesse. Il apparait par ailleurs dans quelques épisodes dans le rôle de Nathan[18].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chanson du générique d'ouverture s'intitule Mighty Little Man, titre de l'album Songs for Dustmites de Steve Burns, musicien et ancien présentateur de Jeu de Bleue (Blue's Clues), un programme télévisé américain pour la jeunesse. Il apparait par ailleurs dans quelques épisodes dans le rôle de Nathan.
 La musique de la série est quant à elle composée par Jeff Cardoni et John Debney.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Young_Sheldon</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Young_Sheldon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Première saison (2017-2018)
-Le jeune Sheldon Cooper, âgé de 9 ans, rejoint le lycée, où il se fera un ami, Tam Nguyen. Sheldon commence à prendre des cours à l'université sous la houlette du professeur Sturgis.
-Deuxième saison (2018-2019)
-Le professeur Sturgis commence une relation avec Meemaw, la grand-mère de Sheldon.
-Troisième saison (2019-2020)
-Quatrième saison (2020-2021)
-Cinquième saison (2021-2022)
-Sixième saison (2022-2023)
-Septième saison (2024)
-Cette saison, qui sera la dernière, est diffusée aux États-Unis dès le 15 février 2024[19].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Young_Sheldon</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Young_Sheldon</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Première saison (2017-2018)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jeune Sheldon Cooper, âgé de 9 ans, rejoint le lycée, où il se fera un ami, Tam Nguyen. Sheldon commence à prendre des cours à l'université sous la houlette du professeur Sturgis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2018-2019)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le professeur Sturgis commence une relation avec Meemaw, la grand-mère de Sheldon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septième saison (2024)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette saison, qui sera la dernière, est diffusée aux États-Unis dès le 15 février 2024.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Univers de la série</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Personnages principaux
-Sheldon Cooper
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sheldon Cooper
 Sheldon a 9 ans dans les deux premières saisons et 10 ans dans la saison 3. Il est un enfant d'une intelligence hors norme, mais il a cependant des difficultés relationnelles. Il n'a que très peu d'amis. Comme il le dit, il n'a que deux amis : Tam Nguyen et le Professeur John Sturgis. Mais il en a d'autres : une fille du même âge, tout aussi douée pour les études, nommée Paige avec qui il s'est lié d'amitié à l'université (bien qu'il la perçoive de prime abord comme une rivale dérangeante) et deux autres étudiants avec qui il a joué et mangé. Il est aussi hypocondriaque et a de nombreuses phobies : les maladies, les microbes et les animaux (surtout les chiens).
 Mary Cooper
 Elle est la mère de Sheldon.
@@ -747,73 +980,115 @@
 Constance « Meemaw » Tucker, « Connie » par le Dr Sturgis
 Elle est la grand-mère de Sheldon.
 Mewmaw habite en face de chez les Cooper. Elle a un premier petit ami, John Sturgis, qui la quitte. Puis, elle sort avec l'entraîneur de base-ball de Missy, Dale Ballard. Elle se fait aussi courtiser par le Dr Linkletter, professeur de Sheldon à l'université, où le Dr Sturgis, l'idole de Sheldon, enseigne aussi.
-Personnages secondaires
-Jeffrey « Jeff » Difford ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Univers de la série</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Personnages secondaires</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeffrey « Jeff » Difford ;
 Plus communément appelé Pasteur Jeff, est le pasteur de l'église où travaille la mère de Sheldon.
 Il est né en 1955. Il épouse en secondes noces l'agent de police Robin Tillbrook avec qui il déménage juste à côté des Cooper. Le couple a un fils.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Young_Sheldon</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Young_Sheldon</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Audiences
-La meilleure audience de la série, est l'épisode pilote, diffusée juste après le premier épisode de la onzième saison de The Big Bang Theory, le pilote a obtenu une audience de 17,21 millions de téléspectateurs[20] aux États-Unis, soit presque autant que la série d'origine. Au Canada, elle est regardée par 3,561 millions de téléspectateurs, soit environ 291 000 de moins que la série d'origine[38].
-La pire audience historique de la série est le troisième épisode de la cinquième saison, avec une audience de 6.36 millions de téléspectateurs[39].</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Young_Sheldon</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Young_Sheldon</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Audiences</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>La meilleure audience de la série, est l'épisode pilote, diffusée juste après le premier épisode de la onzième saison de The Big Bang Theory, le pilote a obtenu une audience de 17,21 millions de téléspectateurs aux États-Unis, soit presque autant que la série d'origine. Au Canada, elle est regardée par 3,561 millions de téléspectateurs, soit environ 291 000 de moins que la série d'origine.
+La pire audience historique de la série est le troisième épisode de la cinquième saison, avec une audience de 6.36 millions de téléspectateurs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Young_Sheldon</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Série dérivée</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En janvier 2024, il est annoncé que Young Sheldon aura droit à une série dérivée (spin-off) centrée sur Georgie Cooper et Mandy McAllister prévue pour la saison 2024–2025 sur CBS[40]. En mars 2024, CBS annonce avoir officiellement commandé la série[41].
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En janvier 2024, il est annoncé que Young Sheldon aura droit à une série dérivée (spin-off) centrée sur Georgie Cooper et Mandy McAllister prévue pour la saison 2024–2025 sur CBS. En mars 2024, CBS annonce avoir officiellement commandé la série.
 </t>
         </is>
       </c>
